--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/20/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.0025</v>
+        <v>-22.15040000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -522,7 +522,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.1906</v>
+        <v>-7.836199999999998</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.76549999999999</v>
+        <v>-21.74469999999998</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -642,7 +642,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5164</v>
+        <v>5.125099999999999</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.04740000000002</v>
+        <v>-22.10240000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.5434</v>
+        <v>-8.587499999999999</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.608499999999998</v>
+        <v>-8.235899999999997</v>
       </c>
     </row>
     <row r="20">
@@ -723,10 +723,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.89079999999998</v>
+        <v>-21.77649999999998</v>
       </c>
       <c r="B21" t="n">
-        <v>6.598100000000005</v>
+        <v>5.919</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -740,7 +740,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>9.496099999999998</v>
+        <v>9.502700000000001</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.13819999999998</v>
+        <v>-20.33999999999999</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.997199999999999</v>
+        <v>5.550800000000002</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.70379999999998</v>
+        <v>-21.72549999999998</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.17889999999997</v>
+        <v>-21.08919999999996</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.231599999999998</v>
+        <v>5.136800000000002</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.100000000000001</v>
+        <v>4.906600000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.51589999999999</v>
+        <v>-21.67389999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -928,7 +928,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.430399999999993</v>
+        <v>-8.259799999999995</v>
       </c>
     </row>
     <row r="36">
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.562999999999997</v>
+        <v>9.3804</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -978,7 +978,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.339799999999995</v>
+        <v>9.152800000000003</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.75870000000001</v>
+        <v>-20.758</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.205699999999997</v>
+        <v>-7.171999999999998</v>
       </c>
     </row>
     <row r="45">
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.197500000000004</v>
+        <v>5.028700000000003</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.109700000000003</v>
+        <v>-7.175000000000009</v>
       </c>
     </row>
     <row r="48">
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>7.970900000000004</v>
+        <v>7.658100000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.981999999999998</v>
+        <v>6.037099999999997</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1138,7 +1138,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.227000000000002</v>
+        <v>-8.255300000000004</v>
       </c>
     </row>
     <row r="51">
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.430999999999996</v>
+        <v>-8.128299999999998</v>
       </c>
     </row>
     <row r="52">
@@ -1160,21 +1160,21 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>4.766399999999994</v>
+        <v>4.679200000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.007700000000002</v>
+        <v>-8.268599999999998</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-20.93669999999997</v>
+        <v>-21.61209999999998</v>
       </c>
       <c r="B53" t="n">
-        <v>6.9874</v>
+        <v>6.124999999999996</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.696500000000003</v>
+        <v>4.616700000000004</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.978000000000002</v>
+        <v>-8.889600000000002</v>
       </c>
     </row>
     <row r="56">
@@ -1227,16 +1227,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.53770000000003</v>
+        <v>-22.52800000000002</v>
       </c>
       <c r="B57" t="n">
-        <v>4.570899999999997</v>
+        <v>4.437199999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.521100000000006</v>
+        <v>-8.262499999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1250,12 +1250,12 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.085900000000013</v>
+        <v>-8.069500000000012</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.65190000000002</v>
+        <v>-22.64630000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1334,12 +1334,12 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.405599999999994</v>
+        <v>-7.493499999999992</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.70389999999998</v>
+        <v>-21.83669999999998</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.358699999999994</v>
+        <v>-7.555599999999991</v>
       </c>
     </row>
     <row r="67">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61609999999998</v>
+        <v>-21.6245</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1412,7 +1412,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>8.353600000000007</v>
+        <v>8.371700000000004</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1426,7 +1426,7 @@
         <v>-21.28</v>
       </c>
       <c r="B71" t="n">
-        <v>4.922499999999997</v>
+        <v>5.025299999999996</v>
       </c>
       <c r="C71" t="n">
         <v>-9.93</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.16500000000001</v>
+        <v>-20.50720000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.950500000000002</v>
+        <v>-7.613099999999999</v>
       </c>
     </row>
     <row r="81">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.60149999999999</v>
+        <v>-21.59139999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-7.755200000000005</v>
+        <v>-7.249100000000006</v>
       </c>
     </row>
     <row r="84">
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.748200000000002</v>
+        <v>4.801200000000006</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1650,7 +1650,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.179400000000002</v>
+        <v>5.222900000000002</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1678,7 +1678,7 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.3992</v>
+        <v>4.4565</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.97339999999999</v>
+        <v>-20.94829999999999</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1726,12 +1726,12 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.623200000000002</v>
+        <v>-6.681500000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.41890000000001</v>
+        <v>-21.49690000000002</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.477800000000002</v>
+        <v>-6.670000000000003</v>
       </c>
     </row>
     <row r="95">
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.306999999999999</v>
+        <v>-8.519400000000003</v>
       </c>
     </row>
     <row r="97">
@@ -1796,7 +1796,7 @@
         <v>-10.47</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.39759999999999</v>
+        <v>-8.618799999999995</v>
       </c>
     </row>
     <row r="98">
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.06610000000002</v>
+        <v>-22.1057</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
@@ -1846,13 +1846,13 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.006699999999999</v>
+        <v>4.941500000000001</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.845000000000002</v>
+        <v>-7.723299999999998</v>
       </c>
     </row>
     <row r="102">
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-21.68190000000001</v>
+        <v>-21.72710000000001</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
